--- a/data/testScriptData.xlsx
+++ b/data/testScriptData.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="org" sheetId="1" r:id="rId1"/>
-    <sheet name="createOrg" sheetId="4" r:id="rId2"/>
-    <sheet name="expectedCond" sheetId="3" r:id="rId3"/>
-    <sheet name="create" sheetId="2" r:id="rId4"/>
-    <sheet name="multiData" sheetId="5" r:id="rId5"/>
+    <sheet name="contact" sheetId="6" r:id="rId2"/>
+    <sheet name="createOrg" sheetId="4" r:id="rId3"/>
+    <sheet name="expectedCond" sheetId="3" r:id="rId4"/>
+    <sheet name="create" sheetId="2" r:id="rId5"/>
+    <sheet name="multiData" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="87">
   <si>
     <t>TC_ID</t>
   </si>
@@ -154,9 +155,6 @@
     <t>ORG_</t>
   </si>
   <si>
-    <t>facebook</t>
-  </si>
-  <si>
     <t>productCategory</t>
   </si>
   <si>
@@ -230,6 +228,63 @@
   </si>
   <si>
     <t>iPhone 23</t>
+  </si>
+  <si>
+    <t>instagram_</t>
+  </si>
+  <si>
+    <t>facebook_</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Investor</t>
+  </si>
+  <si>
+    <t>Industries</t>
+  </si>
+  <si>
+    <t>phoneNumber</t>
+  </si>
+  <si>
+    <t>9988556</t>
+  </si>
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>Kumar_</t>
+  </si>
+  <si>
+    <t>Gagan</t>
+  </si>
+  <si>
+    <t>createContactTest</t>
+  </si>
+  <si>
+    <t>createContactWithSupportDateTest</t>
+  </si>
+  <si>
+    <t>tc_04</t>
+  </si>
+  <si>
+    <t>tc_05</t>
+  </si>
+  <si>
+    <t>tc_06</t>
+  </si>
+  <si>
+    <t>createContactWithOrgTest</t>
+  </si>
+  <si>
+    <t>contactName</t>
   </si>
 </sst>
 </file>
@@ -572,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,7 +671,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>42</v>
@@ -626,6 +681,74 @@
       </c>
       <c r="F2" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -635,6 +758,143 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -690,12 +950,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="A4" sqref="A4:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -814,7 +1074,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA1"/>
   <sheetViews>
@@ -912,11 +1172,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -928,178 +1188,178 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/data/testScriptData.xlsx
+++ b/data/testScriptData.xlsx
@@ -4,15 +4,16 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="org" sheetId="1" r:id="rId1"/>
     <sheet name="contact" sheetId="6" r:id="rId2"/>
-    <sheet name="createOrg" sheetId="4" r:id="rId3"/>
-    <sheet name="expectedCond" sheetId="3" r:id="rId4"/>
-    <sheet name="create" sheetId="2" r:id="rId5"/>
-    <sheet name="multiData" sheetId="5" r:id="rId6"/>
+    <sheet name="product" sheetId="7" r:id="rId3"/>
+    <sheet name="createOrg" sheetId="4" r:id="rId4"/>
+    <sheet name="expectedCond" sheetId="3" r:id="rId5"/>
+    <sheet name="create" sheetId="2" r:id="rId6"/>
+    <sheet name="multiData" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="96">
   <si>
     <t>TC_ID</t>
   </si>
@@ -285,6 +286,33 @@
   </si>
   <si>
     <t>contactName</t>
+  </si>
+  <si>
+    <t>brandName</t>
+  </si>
+  <si>
+    <t>iphone</t>
+  </si>
+  <si>
+    <t>prod_no.</t>
+  </si>
+  <si>
+    <t>prod_01</t>
+  </si>
+  <si>
+    <t>Apple iPhone 13 (128GB) - Green</t>
+  </si>
+  <si>
+    <t>prod_02</t>
+  </si>
+  <si>
+    <t>prod_03</t>
+  </si>
+  <si>
+    <t>Apple iPhone 15 (128 GB) - Blue</t>
+  </si>
+  <si>
+    <t>Apple iPhone 15 (128 GB) - Black</t>
   </si>
 </sst>
 </file>
@@ -761,7 +789,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -895,6 +923,71 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -950,7 +1043,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -1074,7 +1167,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA1"/>
   <sheetViews>
@@ -1172,7 +1265,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B22"/>
   <sheetViews>
